--- a/docs/odh/shr-core-Patient.xlsx
+++ b/docs/odh/shr-core-Patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3241" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="395">
   <si>
     <t>Path</t>
   </si>
@@ -218,7 +218,165 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Patient.meta.id</t>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-race]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>birthsex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
@@ -234,322 +392,63 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.meta.extension</t>
+    <t>Patient.extension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Patient.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Patient.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Patient.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Patient.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Patient.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-race]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>birthsex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -580,156 +479,6 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Patient.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique within the system.</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
     <t>Patient.active</t>
   </si>
   <si>
@@ -756,6 +505,9 @@
     <t>statusCode</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Patient.name</t>
   </si>
   <si>
@@ -782,173 +534,6 @@
   </si>
   <si>
     <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>Patient.name.id</t>
-  </si>
-  <si>
-    <t>Patient.name.extension</t>
-  </si>
-  <si>
-    <t>Patient.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old name etc.for a current/permanent one. Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>The use of a human name</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
-  </si>
-  <si>
-    <t>Patient.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>A full text representation of the name.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and structured parts.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>Patient.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
-</t>
-  </si>
-  <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>XPN.1/FN.1</t>
-  </si>
-  <si>
-    <t>Patient.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name.  Not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>XPN.2 + XPN.3</t>
-  </si>
-  <si>
-    <t>Patient.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>XPN.5</t>
-  </si>
-  <si>
-    <t>Patient.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>XPN/4</t>
-  </si>
-  <si>
-    <t>Patient.name.period</t>
-  </si>
-  <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
-  </si>
-  <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>XPN.13 + XPN.14</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -1199,6 +784,12 @@
     <t>Patient.contact.extension</t>
   </si>
   <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Patient.contact.modifierExtension</t>
   </si>
   <si>
@@ -1299,6 +890,10 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+</t>
+  </si>
+  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -1321,6 +916,10 @@
     <t>Patient.contact.period</t>
   </si>
   <si>
+    <t xml:space="preserve">Period {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
   </si>
   <si>
@@ -1374,6 +973,9 @@
   </si>
   <si>
     <t>Need to know what kind of animal.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>The species of an animal.</t>
@@ -1798,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP88"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1830,11 +1432,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="78.75" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1846,7 +1448,7 @@
     <col min="37" max="37" width="153.55078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="23.1640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="38.12890625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="35.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2341,10 +1943,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -2355,7 +1957,9 @@
       <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2404,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2422,7 +2026,7 @@
         <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>45</v>
@@ -2443,14 +2047,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2462,16 +2066,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2497,37 +2101,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2539,7 +2143,7 @@
         <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>45</v>
@@ -2556,11 +2160,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2576,19 +2180,19 @@
         <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2637,13 +2241,17 @@
       <c r="AD7" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2652,7 +2260,7 @@
         <v>45</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>45</v>
@@ -2669,18 +2277,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2689,19 +2297,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2750,11 +2358,15 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2765,7 +2377,7 @@
         <v>45</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>45</v>
@@ -2782,7 +2394,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2802,20 +2414,18 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>45</v>
@@ -2852,22 +2462,24 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2893,11 +2505,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2906,29 +2520,25 @@
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
@@ -2953,13 +2563,13 @@
         <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>45</v>
@@ -2976,11 +2586,15 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2988,7 +2602,7 @@
         <v>45</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>45</v>
@@ -3006,11 +2620,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>45</v>
       </c>
@@ -3019,29 +2635,25 @@
         <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K11" s="2"/>
       <c r="L11" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -3066,64 +2678,70 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE11" s="2"/>
-      <c r="AF11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG11" s="2"/>
-      <c r="AH11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>45</v>
       </c>
@@ -3135,26 +2753,22 @@
         <v>53</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -3203,13 +2817,13 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>45</v>
@@ -3218,7 +2832,7 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
@@ -3238,9 +2852,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3261,17 +2877,13 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -3296,13 +2908,13 @@
         <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>45</v>
@@ -3320,13 +2932,13 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
@@ -3355,11 +2967,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3378,17 +2990,15 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3437,7 +3047,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3446,7 +3056,7 @@
         <v>53</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>45</v>
@@ -3455,7 +3065,7 @@
         <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>45</v>
@@ -3472,18 +3082,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3495,17 +3105,15 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3554,7 +3162,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3572,7 +3180,7 @@
         <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>45</v>
@@ -3589,7 +3197,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3597,10 +3205,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3612,13 +3220,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3627,7 +3235,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>45</v>
@@ -3657,23 +3265,25 @@
         <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3685,7 +3295,7 @@
         <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>45</v>
@@ -3700,25 +3310,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>45</v>
@@ -3727,11 +3335,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3758,13 +3368,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3782,13 +3390,13 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
@@ -3797,10 +3405,10 @@
         <v>45</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>45</v>
@@ -3815,40 +3423,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3897,7 +3507,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3912,10 +3522,10 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>45</v>
@@ -3932,20 +3542,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>54</v>
@@ -3954,17 +3562,21 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="L19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -4012,7 +3624,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -4027,19 +3639,19 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -4047,11 +3659,9 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -4060,28 +3670,34 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
@@ -4127,13 +3743,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -4145,13 +3761,13 @@
         <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4160,9 +3776,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4170,31 +3786,35 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -4242,13 +3862,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4257,19 +3877,19 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4277,7 +3897,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4288,7 +3908,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4297,19 +3917,23 @@
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4357,7 +3981,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4375,24 +3999,24 @@
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4406,31 +4030,35 @@
         <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>45</v>
@@ -4448,13 +4076,11 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4472,10 +4098,10 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>53</v>
@@ -4487,27 +4113,27 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4515,31 +4141,35 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4563,11 +4193,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4585,7 +4217,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4600,38 +4232,38 @@
         <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4640,21 +4272,23 @@
         <v>54</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4702,13 +4336,13 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
@@ -4720,24 +4354,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4745,13 +4379,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4760,17 +4394,19 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4819,7 +4455,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4834,19 +4470,19 @@
         <v>45</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4854,7 +4490,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4877,16 +4513,18 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4910,13 +4548,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4934,7 +4572,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4952,16 +4590,16 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4969,18 +4607,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4992,18 +4630,20 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5039,25 +4679,25 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -5069,16 +4709,16 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5086,7 +4726,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5097,31 +4737,29 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5146,13 +4784,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -5170,13 +4808,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5188,16 +4826,16 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5205,7 +4843,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5216,7 +4854,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5225,22 +4863,22 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5265,13 +4903,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5289,42 +4927,42 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5332,33 +4970,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5406,7 +5042,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5421,10 +5057,10 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>45</v>
@@ -5433,47 +5069,47 @@
         <v>45</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5523,13 +5159,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5538,10 +5174,10 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>45</v>
@@ -5550,7 +5186,7 @@
         <v>45</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5558,38 +5194,40 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5638,13 +5276,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5656,7 +5294,7 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>45</v>
@@ -5665,7 +5303,7 @@
         <v>45</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5673,7 +5311,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5684,7 +5322,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5693,21 +5331,21 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5731,13 +5369,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5755,13 +5393,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5773,16 +5411,16 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5790,7 +5428,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5801,34 +5439,32 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5874,7 +5510,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5892,24 +5528,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5917,34 +5553,34 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5993,7 +5629,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6008,19 +5644,19 @@
         <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6028,7 +5664,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6051,16 +5687,18 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6108,7 +5746,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6126,16 +5764,16 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6143,18 +5781,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6166,18 +5804,18 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6201,37 +5839,37 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6243,16 +5881,16 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6260,7 +5898,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6277,25 +5915,23 @@
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6320,13 +5956,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6344,7 +5980,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6353,7 +5989,7 @@
         <v>53</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>45</v>
@@ -6362,16 +5998,16 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6379,7 +6015,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6399,23 +6035,19 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>66</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6463,7 +6095,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6481,58 +6113,60 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6580,7 +6214,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6592,63 +6226,61 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G42" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6697,13 +6329,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6712,10 +6344,10 @@
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>45</v>
@@ -6724,7 +6356,7 @@
         <v>45</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6732,11 +6364,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6752,18 +6384,20 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6812,7 +6446,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6830,7 +6464,7 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>45</v>
@@ -6839,7 +6473,7 @@
         <v>45</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6847,11 +6481,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6864,21 +6498,23 @@
         <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6927,7 +6563,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6945,7 +6581,7 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>45</v>
@@ -6954,7 +6590,7 @@
         <v>45</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6962,7 +6598,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6970,7 +6606,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>53</v>
@@ -6985,17 +6621,19 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7020,13 +6658,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7044,10 +6682,10 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>53</v>
@@ -7062,16 +6700,16 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -7079,7 +6717,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7090,7 +6728,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7102,19 +6740,19 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7139,13 +6777,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7163,13 +6801,13 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
@@ -7181,24 +6819,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7206,13 +6844,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
@@ -7221,19 +6859,17 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7258,11 +6894,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7280,7 +6918,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7295,19 +6933,19 @@
         <v>45</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7315,7 +6953,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7326,7 +6964,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>54</v>
@@ -7335,22 +6973,22 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7399,42 +7037,42 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7451,26 +7089,22 @@
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7518,7 +7152,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>328</v>
+        <v>117</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7536,16 +7170,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>334</v>
+        <v>154</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7553,11 +7187,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7573,23 +7207,21 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7625,19 +7257,17 @@
         <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>336</v>
+        <v>119</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7655,16 +7285,16 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>154</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
@@ -7672,9 +7302,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7683,7 +7315,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7695,18 +7327,14 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="K51" s="2"/>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7730,13 +7358,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7754,13 +7382,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>119</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7772,16 +7400,16 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7789,9 +7417,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7800,7 +7430,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7812,20 +7442,14 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="K52" s="2"/>
       <c r="L52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7873,13 +7497,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>354</v>
+        <v>119</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7891,16 +7515,16 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>45</v>
@@ -7908,9 +7532,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7931,18 +7557,14 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="K53" s="2"/>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7990,7 +7612,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>362</v>
+        <v>119</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8008,16 +7630,16 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>45</v>
@@ -8025,11 +7647,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8042,26 +7664,24 @@
         <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>370</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>372</v>
+        <v>247</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -8109,7 +7729,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>369</v>
+        <v>248</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8121,16 +7741,16 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>45</v>
@@ -8142,9 +7762,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8152,13 +7772,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>45</v>
@@ -8167,16 +7787,20 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>67</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8200,13 +7824,11 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8224,10 +7846,10 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>53</v>
@@ -8239,19 +7861,19 @@
         <v>45</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -8259,18 +7881,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8282,18 +7904,20 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8341,13 +7965,13 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>45</v>
@@ -8359,16 +7983,16 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8376,11 +8000,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8393,22 +8017,22 @@
         <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>364</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8458,7 +8082,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8476,16 +8100,16 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>139</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8493,7 +8117,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8504,7 +8128,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8513,20 +8137,22 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8551,13 +8177,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>387</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8575,13 +8201,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8593,16 +8219,16 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>389</v>
+        <v>283</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>70</v>
+        <v>374</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>45</v>
@@ -8610,7 +8236,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8621,29 +8247,31 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8692,34 +8320,34 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8727,7 +8355,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8738,7 +8366,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8750,20 +8378,16 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>397</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8811,13 +8435,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>396</v>
+        <v>117</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8829,16 +8453,16 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -8846,18 +8470,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8869,18 +8493,18 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>402</v>
+        <v>243</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8928,13 +8552,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>401</v>
+        <v>119</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8946,16 +8570,16 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>342</v>
+        <v>154</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>45</v>
@@ -8963,41 +8587,41 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -9021,13 +8645,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -9045,13 +8669,13 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
@@ -9063,16 +8687,16 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -9080,7 +8704,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9088,7 +8712,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>53</v>
@@ -9100,21 +8724,21 @@
         <v>45</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>221</v>
+        <v>385</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9162,16 +8786,16 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>53</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>45</v>
@@ -9180,16 +8804,16 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>416</v>
+        <v>143</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -9197,7 +8821,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9205,7 +8829,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>53</v>
@@ -9217,16 +8841,16 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9253,13 +8877,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9277,10 +8901,10 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>53</v>
@@ -9295,10 +8919,10 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>45</v>
@@ -9307,2817 +8931,11 @@
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" s="2"/>
-      <c r="AC74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="K75" s="2"/>
-      <c r="L75" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="L76" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="X79" s="2"/>
-      <c r="Y79" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO88" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO88">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12127,7 +8945,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Patient.xlsx
+++ b/docs/odh/shr-core-Patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="404">
   <si>
     <t>Path</t>
   </si>
@@ -160,8 +160,7 @@
   </si>
   <si>
     <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.
-SHR follows Argonaut and makes the value set binding on marital status required. SHR also adds optional extensions on communication ability to more fully characterize language skills.
-MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
+SHR follows Argonaut and makes the value set binding on marital status required. MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -218,13 +217,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Patient.implicitRules</t>
+    <t>Patient.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Patient.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Patient.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Patient.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Patient.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Patient.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -254,9 +402,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -325,21 +470,10 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -366,317 +500,248 @@
 </t>
   </si>
   <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Whether this patient's record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this patient record is in active use.</t>
+  </si>
+  <si>
+    <t>Default is true. If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient
+This element is labeled as a modifier because when the patient record is marked as not active it is not expected to be used/referenced without being changed back to active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
+  </si>
+  <si>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension]]} {[]}
+    <t>Patient.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>A name associated with the patient</t>
+  </si>
+  <si>
+    <t>A name associated with the individual.</t>
+  </si>
+  <si>
+    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>.patient.name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>Patient.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Patient.extension.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Patient.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Status-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Patient.extension.valueCodeableConcept</t>
+    <t>A contact detail for the individual</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
+  </si>
+  <si>
+    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address may not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14, PID-40</t>
+  </si>
+  <si>
+    <t>Patient.gender</t>
+  </si>
+  <si>
+    <t>male | female | other | unknown</t>
+  </si>
+  <si>
+    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>The gender may not match the biological sex as determined by genetics, or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than M and F, though the vast majority of systems and contexts only support M and F.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific gender aspect of interest (anatomical, chromosonal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosonal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overrideable error, not a "hard" error.</t>
+  </si>
+  <si>
+    <t>Needed for identification of the individual, in combination with (at least) name and birth date. Gender of individual drives many clinical processes.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
+  </si>
+  <si>
+    <t>.patient.administrativeGenderCode</t>
+  </si>
+  <si>
+    <t>PID-8</t>
+  </si>
+  <si>
+    <t>Patient.birthDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual</t>
+  </si>
+  <si>
+    <t>The date of birth for the individual.</t>
+  </si>
+  <si>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternaty/infant care systems).</t>
+  </si>
+  <si>
+    <t>Age of the individual drives many clinical processes.</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/birthTime</t>
+  </si>
+  <si>
+    <t>.patient.birthTime</t>
+  </si>
+  <si>
+    <t>PID-7</t>
+  </si>
+  <si>
+    <t>21112-8</t>
+  </si>
+  <si>
+    <t>Patient.deceased[x]</t>
+  </si>
+  <si>
+    <t>boolean {[]} {[]}
+dateTime {[]} {[]}</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
+  </si>
+  <si>
+    <t>If there's no value in the instance it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.
+This element is labeled as a modifier because once a patient is marked as deceased, the actions that are appropriate to perform on the patient may be significantly different.</t>
+  </si>
+  <si>
+    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
+  </si>
+  <si>
+    <t>PID-30  (bool) and PID-29 (datetime)</t>
+  </si>
+  <si>
+    <t>Patient.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Addresses for the individual</t>
+  </si>
+  <si>
+    <t>Addresses for the individual.</t>
+  </si>
+  <si>
+    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
+  </si>
+  <si>
+    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>.addr</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>Patient.maritalStatus</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Whether this patient's record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this patient record is in active use.</t>
-  </si>
-  <si>
-    <t>Default is true. If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient
-This element is labeled as a modifier because when the patient record is marked as not active it is not expected to be used/referenced without being changed back to active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
-  </si>
-  <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A name associated with the patient</t>
-  </si>
-  <si>
-    <t>A name associated with the individual.</t>
-  </si>
-  <si>
-    <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>.patient.name</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>Patient.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A contact detail for the individual</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
-  </si>
-  <si>
-    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address may not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>telecom</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14, PID-40</t>
-  </si>
-  <si>
-    <t>Patient.gender</t>
-  </si>
-  <si>
-    <t>male | female | other | unknown</t>
-  </si>
-  <si>
-    <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
-  </si>
-  <si>
-    <t>The gender may not match the biological sex as determined by genetics, or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than M and F, though the vast majority of systems and contexts only support M and F.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific gender aspect of interest (anatomical, chromosonal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosonal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overrideable error, not a "hard" error.</t>
-  </si>
-  <si>
-    <t>Needed for identification of the individual, in combination with (at least) name and birth date. Gender of individual drives many clinical processes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
-  </si>
-  <si>
-    <t>.patient.administrativeGenderCode</t>
-  </si>
-  <si>
-    <t>PID-8</t>
-  </si>
-  <si>
-    <t>Patient.birthDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The date of birth for the individual</t>
-  </si>
-  <si>
-    <t>The date of birth for the individual.</t>
-  </si>
-  <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternaty/infant care systems).</t>
-  </si>
-  <si>
-    <t>Age of the individual drives many clinical processes.</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/birthTime</t>
-  </si>
-  <si>
-    <t>.patient.birthTime</t>
-  </si>
-  <si>
-    <t>PID-7</t>
-  </si>
-  <si>
-    <t>21112-8</t>
-  </si>
-  <si>
-    <t>Patient.deceased[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Indicates if the individual is deceased or not</t>
-  </si>
-  <si>
-    <t>Indicates if the individual is deceased or not.</t>
-  </si>
-  <si>
-    <t>If there's no value in the instance it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.
-This element is labeled as a modifier because once a patient is marked as deceased, the actions that are appropriate to perform on the patient may be significantly different.</t>
-  </si>
-  <si>
-    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
-  </si>
-  <si>
-    <t>PID-30  (bool) and PID-29 (datetime)</t>
-  </si>
-  <si>
-    <t>Patient.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Addresses for the individual</t>
-  </si>
-  <si>
-    <t>Addresses for the individual.</t>
-  </si>
-  <si>
-    <t>Patient may have multiple addresses with different uses or applicable periods.</t>
-  </si>
-  <si>
-    <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
-  </si>
-  <si>
-    <t>addr</t>
-  </si>
-  <si>
-    <t>.addr</t>
-  </si>
-  <si>
-    <t>PID-11</t>
-  </si>
-  <si>
-    <t>Patient.maritalStatus</t>
   </si>
   <si>
     <t>Marital (civil) status of a patient</t>
@@ -784,12 +849,6 @@
     <t>Patient.contact.extension</t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Patient.contact.modifierExtension</t>
   </si>
   <si>
@@ -890,7 +949,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -975,9 +1034,6 @@
     <t>Need to know what kind of animal.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>The species of an animal.</t>
   </si>
   <si>
@@ -1060,36 +1116,6 @@
   </si>
   <si>
     <t>Patient.communication.extension</t>
-  </si>
-  <si>
-    <t>spokenlanguageproficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SpokenLanguageProficiency-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Accuracy and fluency in spoken communication in a language.</t>
-  </si>
-  <si>
-    <t>writtenlanguageproficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-WrittenLanguageProficiency-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Accuracy and fluency of reading and writing in a language.</t>
-  </si>
-  <si>
-    <t>languagequalifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LanguageQualifier-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional information about a person's use of language.</t>
   </si>
   <si>
     <t>Patient.communication.modifierExtension</t>
@@ -1153,7 +1179,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -1223,7 +1249,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -1400,7 +1426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1410,7 +1436,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1432,11 +1458,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="78.75" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.26171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1943,10 +1969,10 @@
         <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>66</v>
@@ -1957,9 +1983,7 @@
       <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>45</v>
@@ -2008,7 +2032,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2026,7 +2050,7 @@
         <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>45</v>
@@ -2047,14 +2071,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>45</v>
@@ -2066,16 +2090,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2101,37 +2125,37 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>45</v>
@@ -2143,7 +2167,7 @@
         <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>45</v>
@@ -2160,11 +2184,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2185,15 +2211,11 @@
       <c r="J7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>45</v>
@@ -2242,16 +2264,16 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>45</v>
@@ -2260,7 +2282,7 @@
         <v>45</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>45</v>
@@ -2277,18 +2299,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>45</v>
@@ -2297,19 +2319,19 @@
         <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2358,15 +2380,11 @@
       <c r="AD8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>95</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>45</v>
       </c>
@@ -2377,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>45</v>
@@ -2394,7 +2412,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2405,7 +2423,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>45</v>
@@ -2414,18 +2432,20 @@
         <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>45</v>
@@ -2462,24 +2482,22 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>45</v>
       </c>
@@ -2505,13 +2523,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2520,25 +2536,29 @@
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
@@ -2586,15 +2606,11 @@
       <c r="AD10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2602,7 +2618,7 @@
         <v>45</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>45</v>
@@ -2620,13 +2636,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2635,25 +2649,29 @@
         <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2678,13 +2696,13 @@
         <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>45</v>
@@ -2701,15 +2719,11 @@
       <c r="AD11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2717,7 +2731,7 @@
         <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
@@ -2735,13 +2749,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2750,25 +2762,29 @@
         <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2793,13 +2809,13 @@
         <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>45</v>
@@ -2816,15 +2832,11 @@
       <c r="AD12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>44</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>45</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
@@ -2852,11 +2864,9 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
@@ -2871,19 +2881,23 @@
         <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -2932,13 +2946,13 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>45</v>
@@ -2967,7 +2981,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2990,15 +3004,17 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3023,13 +3039,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3047,7 +3063,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3065,7 +3081,7 @@
         <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>45</v>
@@ -3082,18 +3098,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3105,15 +3121,17 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3162,16 +3180,16 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>45</v>
@@ -3180,7 +3198,7 @@
         <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>45</v>
@@ -3197,18 +3215,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -3220,22 +3238,24 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>45</v>
@@ -3277,13 +3297,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3295,7 +3315,7 @@
         <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>45</v>
@@ -3312,7 +3332,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3320,10 +3340,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -3335,13 +3355,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3368,35 +3388,35 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
@@ -3408,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>45</v>
@@ -3423,42 +3443,40 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3507,7 +3525,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3522,10 +3540,10 @@
         <v>45</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>45</v>
@@ -3542,18 +3560,20 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>54</v>
@@ -3562,21 +3582,17 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3624,7 +3640,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3639,29 +3655,31 @@
         <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3670,34 +3688,28 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
@@ -3749,7 +3761,7 @@
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3758,63 +3770,61 @@
         <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3862,7 +3872,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3877,27 +3887,27 @@
         <v>45</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3905,13 +3915,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
@@ -3920,19 +3930,17 @@
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -3981,7 +3989,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3996,27 +4004,27 @@
         <v>45</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4024,37 +4032,37 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>53</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
@@ -4076,11 +4084,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4098,7 +4108,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4113,19 +4123,19 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AN23" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4133,7 +4143,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4141,10 +4151,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>54</v>
@@ -4156,19 +4166,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4217,42 +4227,42 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4263,31 +4273,31 @@
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4336,42 +4346,42 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4379,13 +4389,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4394,19 +4404,19 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4431,13 +4441,11 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4455,42 +4463,42 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AM26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4504,26 +4512,28 @@
         <v>53</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4548,13 +4558,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4572,7 +4582,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4587,27 +4597,27 @@
         <v>45</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4624,25 +4634,25 @@
         <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4691,7 +4701,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4709,16 +4719,16 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4726,7 +4736,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4746,20 +4756,22 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4808,7 +4820,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4826,16 +4838,16 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -4843,7 +4855,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4854,7 +4866,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -4866,19 +4878,17 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -4903,13 +4913,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -4927,34 +4937,34 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -4962,7 +4972,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4985,16 +4995,20 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5042,7 +5056,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5060,16 +5074,16 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5077,11 +5091,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5100,18 +5114,18 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5177,16 +5191,16 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5194,11 +5208,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5211,24 +5225,26 @@
         <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5276,7 +5292,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5288,16 +5304,16 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>45</v>
@@ -5311,7 +5327,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5322,7 +5338,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5334,18 +5350,16 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>68</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5369,13 +5383,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5393,13 +5407,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>249</v>
+        <v>69</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5411,16 +5425,16 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5428,18 +5442,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5451,18 +5465,18 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5510,13 +5524,13 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
@@ -5528,16 +5542,16 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -5545,11 +5559,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5562,26 +5576,24 @@
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5629,7 +5641,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5647,16 +5659,16 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -5664,7 +5676,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5675,7 +5687,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5687,17 +5699,17 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5722,13 +5734,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5746,13 +5758,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -5764,16 +5776,16 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -5781,7 +5793,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5804,17 +5816,17 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5839,13 +5851,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5863,7 +5875,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5881,16 +5893,16 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -5898,7 +5910,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5909,7 +5921,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -5921,17 +5933,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -5980,16 +5994,16 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>45</v>
@@ -5998,16 +6012,16 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6015,7 +6029,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6038,7 +6052,7 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>287</v>
@@ -6047,7 +6061,9 @@
         <v>288</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6095,7 +6111,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6113,16 +6129,16 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6130,7 +6146,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6141,31 +6157,29 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>291</v>
+        <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6190,13 +6204,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6214,7 +6228,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6226,22 +6240,22 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6249,7 +6263,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6272,16 +6286,18 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6329,7 +6345,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6338,7 +6354,7 @@
         <v>53</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>45</v>
@@ -6347,16 +6363,16 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6364,18 +6380,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6387,17 +6403,15 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6446,13 +6460,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6464,10 +6478,10 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>45</v>
@@ -6481,18 +6495,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6504,18 +6518,20 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6563,28 +6579,28 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>45</v>
@@ -6598,7 +6614,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6606,7 +6622,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>53</v>
@@ -6618,23 +6634,19 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6658,13 +6670,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6682,10 +6694,10 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>53</v>
@@ -6700,16 +6712,16 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>308</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -6717,18 +6729,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6737,23 +6749,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6777,13 +6787,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -6801,13 +6811,13 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
@@ -6819,16 +6829,16 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>316</v>
+        <v>70</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -6840,37 +6850,37 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -6894,13 +6904,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6918,13 +6928,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -6936,24 +6946,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>324</v>
+        <v>142</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6961,34 +6971,34 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7013,13 +7023,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7037,34 +7047,34 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>331</v>
+        <v>70</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7072,7 +7082,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7092,19 +7102,23 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>115</v>
+        <v>328</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7128,13 +7142,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7152,7 +7166,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7170,16 +7184,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7187,18 +7201,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7207,21 +7221,21 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7245,35 +7259,37 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB50" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>119</v>
+        <v>336</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -7285,28 +7301,26 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7318,7 +7332,7 @@
         <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
@@ -7327,14 +7341,20 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K51" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7382,7 +7402,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>119</v>
+        <v>343</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7394,16 +7414,16 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>45</v>
@@ -7417,11 +7437,9 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7430,7 +7448,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7442,11 +7460,13 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="K52" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
+        <v>68</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7497,13 +7517,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7515,7 +7535,7 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
@@ -7532,13 +7552,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7557,13 +7575,17 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="L53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7612,7 +7634,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7630,7 +7652,7 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>45</v>
@@ -7647,11 +7669,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7670,16 +7692,16 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7729,7 +7751,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7747,7 +7769,7 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>45</v>
@@ -7764,7 +7786,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7787,19 +7809,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -7824,11 +7846,11 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -7846,7 +7868,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>53</v>
@@ -7861,19 +7883,19 @@
         <v>45</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>45</v>
@@ -7881,7 +7903,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7904,19 +7926,19 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -7965,7 +7987,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -7983,16 +8005,16 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8000,11 +8022,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8023,16 +8045,16 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8082,7 +8104,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8100,16 +8122,16 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>45</v>
@@ -8117,7 +8139,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8140,19 +8162,19 @@
         <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8201,7 +8223,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8219,10 +8241,10 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>45</v>
@@ -8236,7 +8258,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8259,19 +8281,19 @@
         <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8320,7 +8342,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8332,16 +8354,16 @@
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>45</v>
@@ -8355,7 +8377,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8378,13 +8400,13 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8435,7 +8457,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8453,7 +8475,7 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>45</v>
@@ -8470,11 +8492,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8493,16 +8515,16 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8552,7 +8574,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8570,7 +8592,7 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>45</v>
@@ -8587,11 +8609,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8610,16 +8632,16 @@
         <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8669,7 +8691,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8687,7 +8709,7 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>45</v>
@@ -8704,7 +8726,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8727,16 +8749,16 @@
         <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8786,7 +8808,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>53</v>
@@ -8804,16 +8826,16 @@
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>45</v>
@@ -8821,7 +8843,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8844,13 +8866,13 @@
         <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8877,13 +8899,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -8901,7 +8923,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>53</v>
@@ -8919,10 +8941,10 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>45</v>
